--- a/Jiyoung/queries/2017-07-01/2017-07-01_주문내역.xlsx
+++ b/Jiyoung/queries/2017-07-01/2017-07-01_주문내역.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Steven/Documents/Workspaces/BreadOrder/Jiyoung/queries/2017-06-24/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Steven/Documents/Workspaces/BreadOrder/Jiyoung/queries/2017-07-01/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19620" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="42">
   <si>
     <t>주문자</t>
   </si>
@@ -88,30 +88,6 @@
   </si>
   <si>
     <t>김영아</t>
-  </si>
-  <si>
-    <t>2017-06-24일 주문</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t xml:space="preserve">11:00 ~ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  265 Franklin St, Melbourne VIC 300</t>
-    </r>
   </si>
   <si>
     <t>...1</t>
@@ -176,6 +152,9 @@
   <si>
     <t>2017-06-24일 개인별 주문내역</t>
   </si>
+  <si>
+    <t>2017-07-01일 주문</t>
+  </si>
 </sst>
 </file>
 
@@ -184,7 +163,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -275,12 +254,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri (Body)"/>
     </font>
     <font>
       <u/>
@@ -517,8 +490,8 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -566,24 +539,6 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -603,6 +558,24 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -882,10 +855,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -895,12 +868,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
+      <c r="A1" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
@@ -924,10 +897,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="17">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D3" s="7">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -938,10 +911,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="17">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D4" s="7">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -952,10 +925,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="17">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="D5" s="7">
-        <v>24</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -966,10 +939,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="17">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="D6" s="7">
-        <v>26</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -980,10 +953,10 @@
         <v>1.5</v>
       </c>
       <c r="C7" s="17">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="D7" s="7">
-        <v>45</v>
+        <v>67.5</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -994,10 +967,10 @@
         <v>2</v>
       </c>
       <c r="C8" s="17">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="D8" s="7">
-        <v>44</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -1008,10 +981,10 @@
         <v>1.5</v>
       </c>
       <c r="C9" s="17">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="D9" s="7">
-        <v>48</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -1022,10 +995,10 @@
         <v>1.5</v>
       </c>
       <c r="C10" s="17">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D10" s="7">
-        <v>49.5</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1036,45 +1009,169 @@
         <v>2</v>
       </c>
       <c r="C11" s="18">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="D11" s="8">
-        <v>36</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="C12" s="22" t="str">
         <f>SUM(C3:C11) &amp; "개"</f>
-        <v>234개</v>
+        <v>455개</v>
       </c>
       <c r="D12" s="4">
         <f>SUM(D3:D11)</f>
-        <v>394.5</v>
+        <v>764.5</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="14" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="29"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="31"/>
+      <c r="A14" s="41"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="44"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="30"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="31"/>
+      <c r="A15" s="43"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="44"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="30"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="31"/>
+      <c r="A16" s="43"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="44"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="5">
+        <v>2</v>
+      </c>
+      <c r="C21" s="17">
+        <v>33</v>
+      </c>
+      <c r="D21" s="7">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="5">
+        <v>2</v>
+      </c>
+      <c r="C22" s="17">
+        <v>35</v>
+      </c>
+      <c r="D22" s="7">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="5">
+        <v>2</v>
+      </c>
+      <c r="C23" s="17">
+        <v>61</v>
+      </c>
+      <c r="D23" s="7">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="5">
+        <v>1</v>
+      </c>
+      <c r="C24" s="17">
+        <v>79</v>
+      </c>
+      <c r="D24" s="7">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="C25" s="17">
+        <v>45</v>
+      </c>
+      <c r="D25" s="7">
+        <v>67.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="5">
+        <v>2</v>
+      </c>
+      <c r="C26" s="17">
+        <v>46</v>
+      </c>
+      <c r="D26" s="7">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="C27" s="17">
+        <v>52</v>
+      </c>
+      <c r="D27" s="7">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="C28" s="17">
+        <v>36</v>
+      </c>
+      <c r="D28" s="7">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="6">
+        <v>2</v>
+      </c>
+      <c r="C29" s="18">
+        <v>68</v>
+      </c>
+      <c r="D29" s="8">
+        <v>136</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1095,7 +1192,7 @@
   </sheetPr>
   <dimension ref="A1:L131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+    <sheetView topLeftCell="A78" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
       <selection activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
@@ -1114,19 +1211,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
+      <c r="A1" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
     </row>
     <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:12" ht="16" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -1154,40 +1251,40 @@
       <c r="K3" s="26"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="35" t="s">
+      <c r="B4" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="37" t="s">
+      <c r="D4" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="33" t="s">
+      <c r="G4" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="H4" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="I4" s="35" t="s">
+      <c r="H4" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="K4" s="37" t="s">
+      <c r="J4" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="K4" s="31" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="38" t="s">
-        <v>22</v>
+      <c r="A5" s="32" t="s">
+        <v>20</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>9</v>
@@ -1198,12 +1295,12 @@
       <c r="D5" s="20">
         <v>1.5</v>
       </c>
-      <c r="E5" s="39">
+      <c r="E5" s="33">
         <v>3</v>
       </c>
       <c r="F5"/>
-      <c r="G5" s="38" t="s">
-        <v>23</v>
+      <c r="G5" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="H5" s="11" t="s">
         <v>5</v>
@@ -1214,14 +1311,14 @@
       <c r="J5" s="20">
         <v>2</v>
       </c>
-      <c r="K5" s="39">
+      <c r="K5" s="33">
         <v>2</v>
       </c>
       <c r="L5"/>
     </row>
     <row r="6" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="38" t="s">
-        <v>22</v>
+      <c r="A6" s="32" t="s">
+        <v>20</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>11</v>
@@ -1232,12 +1329,12 @@
       <c r="D6" s="20">
         <v>1.5</v>
       </c>
-      <c r="E6" s="39">
+      <c r="E6" s="33">
         <v>3</v>
       </c>
       <c r="F6"/>
-      <c r="G6" s="38" t="s">
-        <v>23</v>
+      <c r="G6" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="H6" s="11" t="s">
         <v>6</v>
@@ -1248,14 +1345,14 @@
       <c r="J6" s="20">
         <v>2</v>
       </c>
-      <c r="K6" s="39">
+      <c r="K6" s="33">
         <v>2</v>
       </c>
       <c r="L6"/>
     </row>
     <row r="7" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="38" t="s">
-        <v>22</v>
+      <c r="A7" s="32" t="s">
+        <v>20</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>12</v>
@@ -1266,12 +1363,12 @@
       <c r="D7" s="20">
         <v>1.5</v>
       </c>
-      <c r="E7" s="39">
+      <c r="E7" s="33">
         <v>3</v>
       </c>
       <c r="F7"/>
-      <c r="G7" s="38" t="s">
-        <v>23</v>
+      <c r="G7" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="H7" s="11" t="s">
         <v>8</v>
@@ -1282,30 +1379,30 @@
       <c r="J7" s="20">
         <v>1</v>
       </c>
-      <c r="K7" s="39">
+      <c r="K7" s="33">
         <v>2</v>
       </c>
       <c r="L7"/>
     </row>
     <row r="8" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="41" t="s">
+      <c r="A8" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="42">
-        <v>2</v>
-      </c>
-      <c r="D8" s="43">
-        <v>2</v>
-      </c>
-      <c r="E8" s="44">
+      <c r="C8" s="36">
+        <v>2</v>
+      </c>
+      <c r="D8" s="37">
+        <v>2</v>
+      </c>
+      <c r="E8" s="38">
         <v>4</v>
       </c>
       <c r="F8"/>
-      <c r="G8" s="38" t="s">
-        <v>23</v>
+      <c r="G8" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="H8" s="11" t="s">
         <v>10</v>
@@ -1316,7 +1413,7 @@
       <c r="J8" s="20">
         <v>2</v>
       </c>
-      <c r="K8" s="39">
+      <c r="K8" s="33">
         <v>2</v>
       </c>
       <c r="L8"/>
@@ -1331,8 +1428,8 @@
         <v>13</v>
       </c>
       <c r="F9"/>
-      <c r="G9" s="38" t="s">
-        <v>23</v>
+      <c r="G9" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="H9" s="11" t="s">
         <v>11</v>
@@ -1343,7 +1440,7 @@
       <c r="J9" s="20">
         <v>1.5</v>
       </c>
-      <c r="K9" s="39">
+      <c r="K9" s="33">
         <v>1.5</v>
       </c>
       <c r="L9"/>
@@ -1355,8 +1452,8 @@
       <c r="D10"/>
       <c r="E10"/>
       <c r="F10"/>
-      <c r="G10" s="38" t="s">
-        <v>23</v>
+      <c r="G10" s="32" t="s">
+        <v>21</v>
       </c>
       <c r="H10" s="11" t="s">
         <v>12</v>
@@ -1367,7 +1464,7 @@
       <c r="J10" s="20">
         <v>1.5</v>
       </c>
-      <c r="K10" s="39">
+      <c r="K10" s="33">
         <v>3</v>
       </c>
       <c r="L10"/>
@@ -1379,19 +1476,19 @@
       <c r="D11"/>
       <c r="E11"/>
       <c r="F11"/>
-      <c r="G11" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="H11" s="41" t="s">
+      <c r="G11" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="I11" s="42">
-        <v>1</v>
-      </c>
-      <c r="J11" s="43">
-        <v>2</v>
-      </c>
-      <c r="K11" s="44">
+      <c r="I11" s="36">
+        <v>1</v>
+      </c>
+      <c r="J11" s="37">
+        <v>2</v>
+      </c>
+      <c r="K11" s="38">
         <v>2</v>
       </c>
       <c r="L11"/>
@@ -1468,19 +1565,19 @@
       <c r="L15"/>
     </row>
     <row r="16" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="33" t="s">
+      <c r="A16" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="35" t="s">
+      <c r="B16" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="E16" s="37" t="s">
+      <c r="D16" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" s="31" t="s">
         <v>4</v>
       </c>
       <c r="F16"/>
@@ -1494,8 +1591,8 @@
       <c r="L16"/>
     </row>
     <row r="17" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="38" t="s">
-        <v>24</v>
+      <c r="A17" s="32" t="s">
+        <v>22</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>5</v>
@@ -1506,7 +1603,7 @@
       <c r="D17" s="20">
         <v>2</v>
       </c>
-      <c r="E17" s="39">
+      <c r="E17" s="33">
         <v>10</v>
       </c>
       <c r="F17"/>
@@ -1518,8 +1615,8 @@
       <c r="L17"/>
     </row>
     <row r="18" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="38" t="s">
-        <v>24</v>
+      <c r="A18" s="32" t="s">
+        <v>22</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>6</v>
@@ -1530,7 +1627,7 @@
       <c r="D18" s="20">
         <v>2</v>
       </c>
-      <c r="E18" s="39">
+      <c r="E18" s="33">
         <v>10</v>
       </c>
       <c r="F18"/>
@@ -1542,8 +1639,8 @@
       <c r="L18"/>
     </row>
     <row r="19" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="38" t="s">
-        <v>24</v>
+      <c r="A19" s="32" t="s">
+        <v>22</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>8</v>
@@ -1554,7 +1651,7 @@
       <c r="D19" s="20">
         <v>1</v>
       </c>
-      <c r="E19" s="39">
+      <c r="E19" s="33">
         <v>5</v>
       </c>
       <c r="F19"/>
@@ -1566,8 +1663,8 @@
       <c r="L19"/>
     </row>
     <row r="20" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="38" t="s">
-        <v>24</v>
+      <c r="A20" s="32" t="s">
+        <v>22</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>9</v>
@@ -1578,7 +1675,7 @@
       <c r="D20" s="20">
         <v>1.5</v>
       </c>
-      <c r="E20" s="39">
+      <c r="E20" s="33">
         <v>7.5</v>
       </c>
       <c r="F20"/>
@@ -1590,8 +1687,8 @@
       <c r="L20"/>
     </row>
     <row r="21" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="38" t="s">
-        <v>24</v>
+      <c r="A21" s="32" t="s">
+        <v>22</v>
       </c>
       <c r="B21" s="11" t="s">
         <v>11</v>
@@ -1602,7 +1699,7 @@
       <c r="D21" s="20">
         <v>1.5</v>
       </c>
-      <c r="E21" s="39">
+      <c r="E21" s="33">
         <v>7.5</v>
       </c>
       <c r="F21"/>
@@ -1614,19 +1711,19 @@
       <c r="L21"/>
     </row>
     <row r="22" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" s="41" t="s">
+      <c r="A22" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="42">
+      <c r="C22" s="36">
         <v>5</v>
       </c>
-      <c r="D22" s="43">
-        <v>1.5</v>
-      </c>
-      <c r="E22" s="44">
+      <c r="D22" s="37">
+        <v>1.5</v>
+      </c>
+      <c r="E22" s="38">
         <v>7.5</v>
       </c>
       <c r="F22"/>
@@ -1639,7 +1736,7 @@
     </row>
     <row r="23" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B23"/>
       <c r="C23"/>
@@ -1711,42 +1808,42 @@
       <c r="L26"/>
     </row>
     <row r="27" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="33" t="s">
+      <c r="A27" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="C27" s="35" t="s">
+      <c r="B27" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="D27" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="E27" s="37" t="s">
+      <c r="D27" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="E27" s="31" t="s">
         <v>4</v>
       </c>
       <c r="F27"/>
-      <c r="G27" s="33" t="s">
+      <c r="G27" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="H27" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="I27" s="35" t="s">
+      <c r="H27" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="I27" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="J27" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="K27" s="37" t="s">
+      <c r="J27" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="K27" s="31" t="s">
         <v>4</v>
       </c>
       <c r="L27"/>
     </row>
     <row r="28" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="38" t="s">
-        <v>26</v>
+      <c r="A28" s="32" t="s">
+        <v>24</v>
       </c>
       <c r="B28" s="11" t="s">
         <v>5</v>
@@ -1757,12 +1854,12 @@
       <c r="D28" s="20">
         <v>2</v>
       </c>
-      <c r="E28" s="39">
+      <c r="E28" s="33">
         <v>2</v>
       </c>
       <c r="F28"/>
-      <c r="G28" s="38" t="s">
-        <v>27</v>
+      <c r="G28" s="32" t="s">
+        <v>25</v>
       </c>
       <c r="H28" s="11" t="s">
         <v>5</v>
@@ -1773,14 +1870,14 @@
       <c r="J28" s="20">
         <v>2</v>
       </c>
-      <c r="K28" s="39">
+      <c r="K28" s="33">
         <v>4</v>
       </c>
       <c r="L28"/>
     </row>
     <row r="29" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="38" t="s">
-        <v>26</v>
+      <c r="A29" s="32" t="s">
+        <v>24</v>
       </c>
       <c r="B29" s="11" t="s">
         <v>6</v>
@@ -1791,12 +1888,12 @@
       <c r="D29" s="20">
         <v>2</v>
       </c>
-      <c r="E29" s="39">
+      <c r="E29" s="33">
         <v>2</v>
       </c>
       <c r="F29"/>
-      <c r="G29" s="38" t="s">
-        <v>27</v>
+      <c r="G29" s="32" t="s">
+        <v>25</v>
       </c>
       <c r="H29" s="11" t="s">
         <v>6</v>
@@ -1807,14 +1904,14 @@
       <c r="J29" s="20">
         <v>2</v>
       </c>
-      <c r="K29" s="39">
+      <c r="K29" s="33">
         <v>6</v>
       </c>
       <c r="L29"/>
     </row>
     <row r="30" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30" s="38" t="s">
-        <v>26</v>
+      <c r="A30" s="32" t="s">
+        <v>24</v>
       </c>
       <c r="B30" s="11" t="s">
         <v>7</v>
@@ -1825,12 +1922,12 @@
       <c r="D30" s="20">
         <v>2</v>
       </c>
-      <c r="E30" s="39">
+      <c r="E30" s="33">
         <v>2</v>
       </c>
       <c r="F30"/>
-      <c r="G30" s="38" t="s">
-        <v>27</v>
+      <c r="G30" s="32" t="s">
+        <v>25</v>
       </c>
       <c r="H30" s="11" t="s">
         <v>12</v>
@@ -1841,14 +1938,14 @@
       <c r="J30" s="20">
         <v>1.5</v>
       </c>
-      <c r="K30" s="39">
+      <c r="K30" s="33">
         <v>4.5</v>
       </c>
       <c r="L30"/>
     </row>
     <row r="31" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="38" t="s">
-        <v>26</v>
+      <c r="A31" s="32" t="s">
+        <v>24</v>
       </c>
       <c r="B31" s="11" t="s">
         <v>8</v>
@@ -1859,30 +1956,30 @@
       <c r="D31" s="20">
         <v>1</v>
       </c>
-      <c r="E31" s="39">
+      <c r="E31" s="33">
         <v>1</v>
       </c>
       <c r="F31"/>
-      <c r="G31" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="H31" s="41" t="s">
+      <c r="G31" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="H31" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="I31" s="42">
+      <c r="I31" s="36">
         <v>5</v>
       </c>
-      <c r="J31" s="43">
-        <v>2</v>
-      </c>
-      <c r="K31" s="44">
+      <c r="J31" s="37">
+        <v>2</v>
+      </c>
+      <c r="K31" s="38">
         <v>10</v>
       </c>
       <c r="L31"/>
     </row>
     <row r="32" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A32" s="38" t="s">
-        <v>26</v>
+      <c r="A32" s="32" t="s">
+        <v>24</v>
       </c>
       <c r="B32" s="11" t="s">
         <v>9</v>
@@ -1893,7 +1990,7 @@
       <c r="D32" s="20">
         <v>1.5</v>
       </c>
-      <c r="E32" s="39">
+      <c r="E32" s="33">
         <v>1.5</v>
       </c>
       <c r="F32"/>
@@ -1910,8 +2007,8 @@
       <c r="L32"/>
     </row>
     <row r="33" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A33" s="38" t="s">
-        <v>26</v>
+      <c r="A33" s="32" t="s">
+        <v>24</v>
       </c>
       <c r="B33" s="11" t="s">
         <v>10</v>
@@ -1922,7 +2019,7 @@
       <c r="D33" s="20">
         <v>2</v>
       </c>
-      <c r="E33" s="39">
+      <c r="E33" s="33">
         <v>2</v>
       </c>
       <c r="F33"/>
@@ -1936,8 +2033,8 @@
       <c r="L33"/>
     </row>
     <row r="34" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A34" s="38" t="s">
-        <v>26</v>
+      <c r="A34" s="32" t="s">
+        <v>24</v>
       </c>
       <c r="B34" s="11" t="s">
         <v>11</v>
@@ -1948,7 +2045,7 @@
       <c r="D34" s="20">
         <v>1.5</v>
       </c>
-      <c r="E34" s="39">
+      <c r="E34" s="33">
         <v>1.5</v>
       </c>
       <c r="F34"/>
@@ -1962,8 +2059,8 @@
       <c r="L34"/>
     </row>
     <row r="35" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A35" s="38" t="s">
-        <v>26</v>
+      <c r="A35" s="32" t="s">
+        <v>24</v>
       </c>
       <c r="B35" s="11" t="s">
         <v>12</v>
@@ -1974,7 +2071,7 @@
       <c r="D35" s="20">
         <v>1.5</v>
       </c>
-      <c r="E35" s="39">
+      <c r="E35" s="33">
         <v>1.5</v>
       </c>
       <c r="F35"/>
@@ -1988,19 +2085,19 @@
       <c r="L35"/>
     </row>
     <row r="36" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="40" t="s">
-        <v>26</v>
-      </c>
-      <c r="B36" s="41" t="s">
+      <c r="A36" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="B36" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C36" s="42">
-        <v>1</v>
-      </c>
-      <c r="D36" s="43">
-        <v>2</v>
-      </c>
-      <c r="E36" s="44">
+      <c r="C36" s="36">
+        <v>1</v>
+      </c>
+      <c r="D36" s="37">
+        <v>2</v>
+      </c>
+      <c r="E36" s="38">
         <v>2</v>
       </c>
       <c r="F36"/>
@@ -2089,42 +2186,42 @@
       <c r="L40"/>
     </row>
     <row r="41" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A41" s="33" t="s">
+      <c r="A41" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B41" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="C41" s="35" t="s">
+      <c r="B41" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="D41" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="E41" s="37" t="s">
+      <c r="D41" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="E41" s="31" t="s">
         <v>4</v>
       </c>
       <c r="F41"/>
-      <c r="G41" s="33" t="s">
+      <c r="G41" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="H41" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="I41" s="35" t="s">
+      <c r="H41" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="I41" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="J41" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="K41" s="37" t="s">
+      <c r="J41" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="K41" s="31" t="s">
         <v>4</v>
       </c>
       <c r="L41"/>
     </row>
     <row r="42" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A42" s="38" t="s">
-        <v>28</v>
+      <c r="A42" s="32" t="s">
+        <v>26</v>
       </c>
       <c r="B42" s="11" t="s">
         <v>5</v>
@@ -2135,12 +2232,12 @@
       <c r="D42" s="20">
         <v>2</v>
       </c>
-      <c r="E42" s="39">
+      <c r="E42" s="33">
         <v>2</v>
       </c>
       <c r="F42"/>
-      <c r="G42" s="38" t="s">
-        <v>29</v>
+      <c r="G42" s="32" t="s">
+        <v>27</v>
       </c>
       <c r="H42" s="11" t="s">
         <v>5</v>
@@ -2151,14 +2248,14 @@
       <c r="J42" s="20">
         <v>2</v>
       </c>
-      <c r="K42" s="39">
+      <c r="K42" s="33">
         <v>4</v>
       </c>
       <c r="L42"/>
     </row>
     <row r="43" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A43" s="38" t="s">
-        <v>28</v>
+      <c r="A43" s="32" t="s">
+        <v>26</v>
       </c>
       <c r="B43" s="11" t="s">
         <v>6</v>
@@ -2169,12 +2266,12 @@
       <c r="D43" s="20">
         <v>2</v>
       </c>
-      <c r="E43" s="39">
+      <c r="E43" s="33">
         <v>2</v>
       </c>
       <c r="F43"/>
-      <c r="G43" s="38" t="s">
-        <v>29</v>
+      <c r="G43" s="32" t="s">
+        <v>27</v>
       </c>
       <c r="H43" s="11" t="s">
         <v>6</v>
@@ -2185,14 +2282,14 @@
       <c r="J43" s="20">
         <v>2</v>
       </c>
-      <c r="K43" s="39">
+      <c r="K43" s="33">
         <v>2</v>
       </c>
       <c r="L43"/>
     </row>
     <row r="44" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A44" s="38" t="s">
-        <v>28</v>
+      <c r="A44" s="32" t="s">
+        <v>26</v>
       </c>
       <c r="B44" s="11" t="s">
         <v>7</v>
@@ -2203,12 +2300,12 @@
       <c r="D44" s="20">
         <v>2</v>
       </c>
-      <c r="E44" s="39">
+      <c r="E44" s="33">
         <v>2</v>
       </c>
       <c r="F44"/>
-      <c r="G44" s="38" t="s">
-        <v>29</v>
+      <c r="G44" s="32" t="s">
+        <v>27</v>
       </c>
       <c r="H44" s="11" t="s">
         <v>8</v>
@@ -2219,14 +2316,14 @@
       <c r="J44" s="20">
         <v>1</v>
       </c>
-      <c r="K44" s="39">
+      <c r="K44" s="33">
         <v>2</v>
       </c>
       <c r="L44"/>
     </row>
     <row r="45" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A45" s="38" t="s">
-        <v>28</v>
+      <c r="A45" s="32" t="s">
+        <v>26</v>
       </c>
       <c r="B45" s="11" t="s">
         <v>8</v>
@@ -2237,12 +2334,12 @@
       <c r="D45" s="20">
         <v>1</v>
       </c>
-      <c r="E45" s="39">
+      <c r="E45" s="33">
         <v>2</v>
       </c>
       <c r="F45"/>
-      <c r="G45" s="38" t="s">
-        <v>29</v>
+      <c r="G45" s="32" t="s">
+        <v>27</v>
       </c>
       <c r="H45" s="11" t="s">
         <v>9</v>
@@ -2253,14 +2350,14 @@
       <c r="J45" s="20">
         <v>1.5</v>
       </c>
-      <c r="K45" s="39">
+      <c r="K45" s="33">
         <v>3</v>
       </c>
       <c r="L45"/>
     </row>
     <row r="46" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A46" s="38" t="s">
-        <v>28</v>
+      <c r="A46" s="32" t="s">
+        <v>26</v>
       </c>
       <c r="B46" s="11" t="s">
         <v>9</v>
@@ -2271,12 +2368,12 @@
       <c r="D46" s="20">
         <v>1.5</v>
       </c>
-      <c r="E46" s="39">
+      <c r="E46" s="33">
         <v>3</v>
       </c>
       <c r="F46"/>
-      <c r="G46" s="38" t="s">
-        <v>29</v>
+      <c r="G46" s="32" t="s">
+        <v>27</v>
       </c>
       <c r="H46" s="11" t="s">
         <v>10</v>
@@ -2287,14 +2384,14 @@
       <c r="J46" s="20">
         <v>2</v>
       </c>
-      <c r="K46" s="39">
+      <c r="K46" s="33">
         <v>2</v>
       </c>
       <c r="L46"/>
     </row>
     <row r="47" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="38" t="s">
-        <v>28</v>
+      <c r="A47" s="32" t="s">
+        <v>26</v>
       </c>
       <c r="B47" s="11" t="s">
         <v>10</v>
@@ -2305,30 +2402,30 @@
       <c r="D47" s="20">
         <v>2</v>
       </c>
-      <c r="E47" s="39">
+      <c r="E47" s="33">
         <v>4</v>
       </c>
       <c r="F47"/>
-      <c r="G47" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="H47" s="41" t="s">
+      <c r="G47" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="H47" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="I47" s="42">
-        <v>2</v>
-      </c>
-      <c r="J47" s="43">
-        <v>1.5</v>
-      </c>
-      <c r="K47" s="44">
+      <c r="I47" s="36">
+        <v>2</v>
+      </c>
+      <c r="J47" s="37">
+        <v>1.5</v>
+      </c>
+      <c r="K47" s="38">
         <v>3</v>
       </c>
       <c r="L47"/>
     </row>
     <row r="48" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A48" s="38" t="s">
-        <v>28</v>
+      <c r="A48" s="32" t="s">
+        <v>26</v>
       </c>
       <c r="B48" s="11" t="s">
         <v>11</v>
@@ -2339,7 +2436,7 @@
       <c r="D48" s="20">
         <v>1.5</v>
       </c>
-      <c r="E48" s="39">
+      <c r="E48" s="33">
         <v>3</v>
       </c>
       <c r="F48"/>
@@ -2356,8 +2453,8 @@
       <c r="L48"/>
     </row>
     <row r="49" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A49" s="38" t="s">
-        <v>28</v>
+      <c r="A49" s="32" t="s">
+        <v>26</v>
       </c>
       <c r="B49" s="11" t="s">
         <v>12</v>
@@ -2368,7 +2465,7 @@
       <c r="D49" s="20">
         <v>1.5</v>
       </c>
-      <c r="E49" s="39">
+      <c r="E49" s="33">
         <v>3</v>
       </c>
       <c r="F49"/>
@@ -2382,19 +2479,19 @@
       <c r="L49"/>
     </row>
     <row r="50" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="B50" s="41" t="s">
+      <c r="A50" s="34" t="s">
+        <v>26</v>
+      </c>
+      <c r="B50" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C50" s="42">
-        <v>2</v>
-      </c>
-      <c r="D50" s="43">
-        <v>2</v>
-      </c>
-      <c r="E50" s="44">
+      <c r="C50" s="36">
+        <v>2</v>
+      </c>
+      <c r="D50" s="37">
+        <v>2</v>
+      </c>
+      <c r="E50" s="38">
         <v>4</v>
       </c>
       <c r="F50"/>
@@ -2485,42 +2582,42 @@
       <c r="L54"/>
     </row>
     <row r="55" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A55" s="33" t="s">
+      <c r="A55" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B55" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="C55" s="35" t="s">
+      <c r="B55" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C55" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="D55" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="E55" s="37" t="s">
+      <c r="D55" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="E55" s="31" t="s">
         <v>4</v>
       </c>
       <c r="F55"/>
-      <c r="G55" s="33" t="s">
+      <c r="G55" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="H55" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="I55" s="35" t="s">
+      <c r="H55" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="I55" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="J55" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="K55" s="37" t="s">
+      <c r="J55" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="K55" s="31" t="s">
         <v>4</v>
       </c>
       <c r="L55"/>
     </row>
     <row r="56" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A56" s="38" t="s">
-        <v>30</v>
+      <c r="A56" s="32" t="s">
+        <v>28</v>
       </c>
       <c r="B56" s="11" t="s">
         <v>7</v>
@@ -2531,12 +2628,12 @@
       <c r="D56" s="20">
         <v>2</v>
       </c>
-      <c r="E56" s="39">
+      <c r="E56" s="33">
         <v>2</v>
       </c>
       <c r="F56"/>
-      <c r="G56" s="38" t="s">
-        <v>31</v>
+      <c r="G56" s="32" t="s">
+        <v>29</v>
       </c>
       <c r="H56" s="11" t="s">
         <v>5</v>
@@ -2547,14 +2644,14 @@
       <c r="J56" s="20">
         <v>2</v>
       </c>
-      <c r="K56" s="39">
+      <c r="K56" s="33">
         <v>2</v>
       </c>
       <c r="L56"/>
     </row>
     <row r="57" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A57" s="38" t="s">
-        <v>30</v>
+      <c r="A57" s="32" t="s">
+        <v>28</v>
       </c>
       <c r="B57" s="11" t="s">
         <v>8</v>
@@ -2565,12 +2662,12 @@
       <c r="D57" s="20">
         <v>1</v>
       </c>
-      <c r="E57" s="39">
+      <c r="E57" s="33">
         <v>2</v>
       </c>
       <c r="F57"/>
-      <c r="G57" s="38" t="s">
-        <v>31</v>
+      <c r="G57" s="32" t="s">
+        <v>29</v>
       </c>
       <c r="H57" s="11" t="s">
         <v>6</v>
@@ -2581,14 +2678,14 @@
       <c r="J57" s="20">
         <v>2</v>
       </c>
-      <c r="K57" s="39">
+      <c r="K57" s="33">
         <v>4</v>
       </c>
       <c r="L57"/>
     </row>
     <row r="58" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A58" s="38" t="s">
-        <v>30</v>
+      <c r="A58" s="32" t="s">
+        <v>28</v>
       </c>
       <c r="B58" s="11" t="s">
         <v>10</v>
@@ -2599,12 +2696,12 @@
       <c r="D58" s="20">
         <v>2</v>
       </c>
-      <c r="E58" s="39">
+      <c r="E58" s="33">
         <v>2</v>
       </c>
       <c r="F58"/>
-      <c r="G58" s="38" t="s">
-        <v>31</v>
+      <c r="G58" s="32" t="s">
+        <v>29</v>
       </c>
       <c r="H58" s="11" t="s">
         <v>7</v>
@@ -2615,14 +2712,14 @@
       <c r="J58" s="20">
         <v>2</v>
       </c>
-      <c r="K58" s="39">
+      <c r="K58" s="33">
         <v>4</v>
       </c>
       <c r="L58"/>
     </row>
     <row r="59" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A59" s="38" t="s">
-        <v>30</v>
+      <c r="A59" s="32" t="s">
+        <v>28</v>
       </c>
       <c r="B59" s="11" t="s">
         <v>11</v>
@@ -2633,12 +2730,12 @@
       <c r="D59" s="20">
         <v>1.5</v>
       </c>
-      <c r="E59" s="39">
+      <c r="E59" s="33">
         <v>1.5</v>
       </c>
       <c r="F59"/>
-      <c r="G59" s="38" t="s">
-        <v>31</v>
+      <c r="G59" s="32" t="s">
+        <v>29</v>
       </c>
       <c r="H59" s="11" t="s">
         <v>8</v>
@@ -2649,30 +2746,30 @@
       <c r="J59" s="20">
         <v>1</v>
       </c>
-      <c r="K59" s="39">
+      <c r="K59" s="33">
         <v>1</v>
       </c>
       <c r="L59"/>
     </row>
     <row r="60" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="B60" s="41" t="s">
+      <c r="A60" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="B60" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C60" s="42">
-        <v>1</v>
-      </c>
-      <c r="D60" s="43">
-        <v>2</v>
-      </c>
-      <c r="E60" s="44">
+      <c r="C60" s="36">
+        <v>1</v>
+      </c>
+      <c r="D60" s="37">
+        <v>2</v>
+      </c>
+      <c r="E60" s="38">
         <v>2</v>
       </c>
       <c r="F60"/>
-      <c r="G60" s="38" t="s">
-        <v>31</v>
+      <c r="G60" s="32" t="s">
+        <v>29</v>
       </c>
       <c r="H60" s="11" t="s">
         <v>9</v>
@@ -2683,7 +2780,7 @@
       <c r="J60" s="20">
         <v>1.5</v>
       </c>
-      <c r="K60" s="39">
+      <c r="K60" s="33">
         <v>1.5</v>
       </c>
       <c r="L60"/>
@@ -2698,8 +2795,8 @@
         <v>9.5</v>
       </c>
       <c r="F61"/>
-      <c r="G61" s="38" t="s">
-        <v>31</v>
+      <c r="G61" s="32" t="s">
+        <v>29</v>
       </c>
       <c r="H61" s="11" t="s">
         <v>10</v>
@@ -2710,7 +2807,7 @@
       <c r="J61" s="20">
         <v>2</v>
       </c>
-      <c r="K61" s="39">
+      <c r="K61" s="33">
         <v>2</v>
       </c>
       <c r="L61"/>
@@ -2722,8 +2819,8 @@
       <c r="D62"/>
       <c r="E62"/>
       <c r="F62"/>
-      <c r="G62" s="38" t="s">
-        <v>31</v>
+      <c r="G62" s="32" t="s">
+        <v>29</v>
       </c>
       <c r="H62" s="11" t="s">
         <v>11</v>
@@ -2734,7 +2831,7 @@
       <c r="J62" s="20">
         <v>1.5</v>
       </c>
-      <c r="K62" s="39">
+      <c r="K62" s="33">
         <v>1.5</v>
       </c>
       <c r="L62"/>
@@ -2746,8 +2843,8 @@
       <c r="D63"/>
       <c r="E63"/>
       <c r="F63"/>
-      <c r="G63" s="38" t="s">
-        <v>31</v>
+      <c r="G63" s="32" t="s">
+        <v>29</v>
       </c>
       <c r="H63" s="11" t="s">
         <v>12</v>
@@ -2758,7 +2855,7 @@
       <c r="J63" s="20">
         <v>1.5</v>
       </c>
-      <c r="K63" s="39">
+      <c r="K63" s="33">
         <v>1.5</v>
       </c>
       <c r="L63"/>
@@ -2770,19 +2867,19 @@
       <c r="D64"/>
       <c r="E64"/>
       <c r="F64"/>
-      <c r="G64" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="H64" s="41" t="s">
+      <c r="G64" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="H64" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="I64" s="42">
-        <v>1</v>
-      </c>
-      <c r="J64" s="43">
-        <v>2</v>
-      </c>
-      <c r="K64" s="44">
+      <c r="I64" s="36">
+        <v>1</v>
+      </c>
+      <c r="J64" s="37">
+        <v>2</v>
+      </c>
+      <c r="K64" s="38">
         <v>2</v>
       </c>
       <c r="L64"/>
@@ -2865,42 +2962,42 @@
       <c r="L68"/>
     </row>
     <row r="69" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A69" s="33" t="s">
+      <c r="A69" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B69" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="C69" s="35" t="s">
+      <c r="B69" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C69" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="D69" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="E69" s="37" t="s">
+      <c r="D69" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="E69" s="31" t="s">
         <v>4</v>
       </c>
       <c r="F69"/>
-      <c r="G69" s="33" t="s">
+      <c r="G69" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="H69" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="I69" s="35" t="s">
+      <c r="H69" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="I69" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="J69" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="K69" s="37" t="s">
+      <c r="J69" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="K69" s="31" t="s">
         <v>4</v>
       </c>
       <c r="L69"/>
     </row>
     <row r="70" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A70" s="38" t="s">
-        <v>32</v>
+      <c r="A70" s="32" t="s">
+        <v>30</v>
       </c>
       <c r="B70" s="11" t="s">
         <v>6</v>
@@ -2911,12 +3008,12 @@
       <c r="D70" s="20">
         <v>2</v>
       </c>
-      <c r="E70" s="39">
+      <c r="E70" s="33">
         <v>2</v>
       </c>
       <c r="F70"/>
-      <c r="G70" s="38" t="s">
-        <v>33</v>
+      <c r="G70" s="32" t="s">
+        <v>31</v>
       </c>
       <c r="H70" s="11" t="s">
         <v>5</v>
@@ -2927,14 +3024,14 @@
       <c r="J70" s="20">
         <v>2</v>
       </c>
-      <c r="K70" s="39">
+      <c r="K70" s="33">
         <v>2</v>
       </c>
       <c r="L70"/>
     </row>
     <row r="71" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A71" s="38" t="s">
-        <v>32</v>
+      <c r="A71" s="32" t="s">
+        <v>30</v>
       </c>
       <c r="B71" s="11" t="s">
         <v>7</v>
@@ -2945,12 +3042,12 @@
       <c r="D71" s="20">
         <v>2</v>
       </c>
-      <c r="E71" s="39">
+      <c r="E71" s="33">
         <v>2</v>
       </c>
       <c r="F71"/>
-      <c r="G71" s="38" t="s">
-        <v>33</v>
+      <c r="G71" s="32" t="s">
+        <v>31</v>
       </c>
       <c r="H71" s="11" t="s">
         <v>6</v>
@@ -2961,14 +3058,14 @@
       <c r="J71" s="20">
         <v>2</v>
       </c>
-      <c r="K71" s="39">
+      <c r="K71" s="33">
         <v>2</v>
       </c>
       <c r="L71"/>
     </row>
     <row r="72" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A72" s="38" t="s">
-        <v>32</v>
+      <c r="A72" s="32" t="s">
+        <v>30</v>
       </c>
       <c r="B72" s="11" t="s">
         <v>8</v>
@@ -2979,12 +3076,12 @@
       <c r="D72" s="20">
         <v>1</v>
       </c>
-      <c r="E72" s="39">
+      <c r="E72" s="33">
         <v>6</v>
       </c>
       <c r="F72"/>
-      <c r="G72" s="38" t="s">
-        <v>33</v>
+      <c r="G72" s="32" t="s">
+        <v>31</v>
       </c>
       <c r="H72" s="11" t="s">
         <v>7</v>
@@ -2995,14 +3092,14 @@
       <c r="J72" s="20">
         <v>2</v>
       </c>
-      <c r="K72" s="39">
+      <c r="K72" s="33">
         <v>2</v>
       </c>
       <c r="L72"/>
     </row>
     <row r="73" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A73" s="38" t="s">
-        <v>32</v>
+      <c r="A73" s="32" t="s">
+        <v>30</v>
       </c>
       <c r="B73" s="11" t="s">
         <v>10</v>
@@ -3013,12 +3110,12 @@
       <c r="D73" s="20">
         <v>2</v>
       </c>
-      <c r="E73" s="39">
+      <c r="E73" s="33">
         <v>4</v>
       </c>
       <c r="F73"/>
-      <c r="G73" s="38" t="s">
-        <v>33</v>
+      <c r="G73" s="32" t="s">
+        <v>31</v>
       </c>
       <c r="H73" s="11" t="s">
         <v>8</v>
@@ -3029,14 +3126,14 @@
       <c r="J73" s="20">
         <v>1</v>
       </c>
-      <c r="K73" s="39">
+      <c r="K73" s="33">
         <v>1</v>
       </c>
       <c r="L73"/>
     </row>
     <row r="74" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A74" s="38" t="s">
-        <v>32</v>
+      <c r="A74" s="32" t="s">
+        <v>30</v>
       </c>
       <c r="B74" s="11" t="s">
         <v>11</v>
@@ -3047,12 +3144,12 @@
       <c r="D74" s="20">
         <v>1.5</v>
       </c>
-      <c r="E74" s="39">
+      <c r="E74" s="33">
         <v>3</v>
       </c>
       <c r="F74"/>
-      <c r="G74" s="38" t="s">
-        <v>33</v>
+      <c r="G74" s="32" t="s">
+        <v>31</v>
       </c>
       <c r="H74" s="11" t="s">
         <v>9</v>
@@ -3063,30 +3160,30 @@
       <c r="J74" s="20">
         <v>1.5</v>
       </c>
-      <c r="K74" s="39">
+      <c r="K74" s="33">
         <v>1.5</v>
       </c>
       <c r="L74"/>
     </row>
     <row r="75" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="B75" s="41" t="s">
+      <c r="A75" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="B75" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="C75" s="42">
-        <v>2</v>
-      </c>
-      <c r="D75" s="43">
-        <v>1.5</v>
-      </c>
-      <c r="E75" s="44">
+      <c r="C75" s="36">
+        <v>2</v>
+      </c>
+      <c r="D75" s="37">
+        <v>1.5</v>
+      </c>
+      <c r="E75" s="38">
         <v>3</v>
       </c>
       <c r="F75"/>
-      <c r="G75" s="38" t="s">
-        <v>33</v>
+      <c r="G75" s="32" t="s">
+        <v>31</v>
       </c>
       <c r="H75" s="11" t="s">
         <v>10</v>
@@ -3097,7 +3194,7 @@
       <c r="J75" s="20">
         <v>2</v>
       </c>
-      <c r="K75" s="39">
+      <c r="K75" s="33">
         <v>2</v>
       </c>
       <c r="L75"/>
@@ -3112,8 +3209,8 @@
         <v>20</v>
       </c>
       <c r="F76"/>
-      <c r="G76" s="38" t="s">
-        <v>33</v>
+      <c r="G76" s="32" t="s">
+        <v>31</v>
       </c>
       <c r="H76" s="11" t="s">
         <v>11</v>
@@ -3124,7 +3221,7 @@
       <c r="J76" s="20">
         <v>1.5</v>
       </c>
-      <c r="K76" s="39">
+      <c r="K76" s="33">
         <v>1.5</v>
       </c>
       <c r="L76"/>
@@ -3136,8 +3233,8 @@
       <c r="D77"/>
       <c r="E77"/>
       <c r="F77"/>
-      <c r="G77" s="38" t="s">
-        <v>33</v>
+      <c r="G77" s="32" t="s">
+        <v>31</v>
       </c>
       <c r="H77" s="11" t="s">
         <v>12</v>
@@ -3148,7 +3245,7 @@
       <c r="J77" s="20">
         <v>1.5</v>
       </c>
-      <c r="K77" s="39">
+      <c r="K77" s="33">
         <v>1.5</v>
       </c>
       <c r="L77"/>
@@ -3160,19 +3257,19 @@
       <c r="D78"/>
       <c r="E78"/>
       <c r="F78"/>
-      <c r="G78" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="H78" s="41" t="s">
+      <c r="G78" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="H78" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="I78" s="42">
-        <v>1</v>
-      </c>
-      <c r="J78" s="43">
-        <v>2</v>
-      </c>
-      <c r="K78" s="44">
+      <c r="I78" s="36">
+        <v>1</v>
+      </c>
+      <c r="J78" s="37">
+        <v>2</v>
+      </c>
+      <c r="K78" s="38">
         <v>2</v>
       </c>
       <c r="L78"/>
@@ -3255,42 +3352,42 @@
       <c r="L82"/>
     </row>
     <row r="83" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A83" s="33" t="s">
+      <c r="A83" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B83" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="C83" s="35" t="s">
+      <c r="B83" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C83" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="D83" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="E83" s="37" t="s">
+      <c r="D83" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="E83" s="31" t="s">
         <v>4</v>
       </c>
       <c r="F83"/>
-      <c r="G83" s="33" t="s">
+      <c r="G83" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="H83" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="I83" s="35" t="s">
+      <c r="H83" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="I83" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="J83" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="K83" s="37" t="s">
+      <c r="J83" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="K83" s="31" t="s">
         <v>4</v>
       </c>
       <c r="L83"/>
     </row>
     <row r="84" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A84" s="38" t="s">
-        <v>34</v>
+      <c r="A84" s="32" t="s">
+        <v>32</v>
       </c>
       <c r="B84" s="11" t="s">
         <v>5</v>
@@ -3301,12 +3398,12 @@
       <c r="D84" s="20">
         <v>2</v>
       </c>
-      <c r="E84" s="39">
+      <c r="E84" s="33">
         <v>10</v>
       </c>
       <c r="F84"/>
-      <c r="G84" s="38" t="s">
-        <v>35</v>
+      <c r="G84" s="32" t="s">
+        <v>33</v>
       </c>
       <c r="H84" s="11" t="s">
         <v>5</v>
@@ -3317,30 +3414,30 @@
       <c r="J84" s="20">
         <v>2</v>
       </c>
-      <c r="K84" s="39">
+      <c r="K84" s="33">
         <v>6</v>
       </c>
       <c r="L84"/>
     </row>
     <row r="85" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="B85" s="41" t="s">
+      <c r="A85" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="B85" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C85" s="42">
+      <c r="C85" s="36">
         <v>8</v>
       </c>
-      <c r="D85" s="43">
-        <v>1.5</v>
-      </c>
-      <c r="E85" s="44">
+      <c r="D85" s="37">
+        <v>1.5</v>
+      </c>
+      <c r="E85" s="38">
         <v>12</v>
       </c>
       <c r="F85"/>
-      <c r="G85" s="38" t="s">
-        <v>35</v>
+      <c r="G85" s="32" t="s">
+        <v>33</v>
       </c>
       <c r="H85" s="11" t="s">
         <v>6</v>
@@ -3351,7 +3448,7 @@
       <c r="J85" s="20">
         <v>2</v>
       </c>
-      <c r="K85" s="39">
+      <c r="K85" s="33">
         <v>4</v>
       </c>
       <c r="L85"/>
@@ -3366,8 +3463,8 @@
         <v>22</v>
       </c>
       <c r="F86"/>
-      <c r="G86" s="38" t="s">
-        <v>35</v>
+      <c r="G86" s="32" t="s">
+        <v>33</v>
       </c>
       <c r="H86" s="11" t="s">
         <v>7</v>
@@ -3378,7 +3475,7 @@
       <c r="J86" s="20">
         <v>2</v>
       </c>
-      <c r="K86" s="39">
+      <c r="K86" s="33">
         <v>4</v>
       </c>
       <c r="L86"/>
@@ -3390,8 +3487,8 @@
       <c r="D87"/>
       <c r="E87"/>
       <c r="F87"/>
-      <c r="G87" s="38" t="s">
-        <v>35</v>
+      <c r="G87" s="32" t="s">
+        <v>33</v>
       </c>
       <c r="H87" s="11" t="s">
         <v>9</v>
@@ -3402,7 +3499,7 @@
       <c r="J87" s="20">
         <v>1.5</v>
       </c>
-      <c r="K87" s="39">
+      <c r="K87" s="33">
         <v>3</v>
       </c>
       <c r="L87"/>
@@ -3414,8 +3511,8 @@
       <c r="D88"/>
       <c r="E88"/>
       <c r="F88"/>
-      <c r="G88" s="38" t="s">
-        <v>35</v>
+      <c r="G88" s="32" t="s">
+        <v>33</v>
       </c>
       <c r="H88" s="11" t="s">
         <v>10</v>
@@ -3426,7 +3523,7 @@
       <c r="J88" s="20">
         <v>2</v>
       </c>
-      <c r="K88" s="39">
+      <c r="K88" s="33">
         <v>4</v>
       </c>
       <c r="L88"/>
@@ -3438,8 +3535,8 @@
       <c r="D89"/>
       <c r="E89"/>
       <c r="F89"/>
-      <c r="G89" s="38" t="s">
-        <v>35</v>
+      <c r="G89" s="32" t="s">
+        <v>33</v>
       </c>
       <c r="H89" s="11" t="s">
         <v>11</v>
@@ -3450,7 +3547,7 @@
       <c r="J89" s="20">
         <v>1.5</v>
       </c>
-      <c r="K89" s="39">
+      <c r="K89" s="33">
         <v>4.5</v>
       </c>
       <c r="L89"/>
@@ -3462,19 +3559,19 @@
       <c r="D90"/>
       <c r="E90"/>
       <c r="F90"/>
-      <c r="G90" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="H90" s="41" t="s">
+      <c r="G90" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="H90" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="I90" s="42">
-        <v>2</v>
-      </c>
-      <c r="J90" s="43">
-        <v>2</v>
-      </c>
-      <c r="K90" s="44">
+      <c r="I90" s="36">
+        <v>2</v>
+      </c>
+      <c r="J90" s="37">
+        <v>2</v>
+      </c>
+      <c r="K90" s="38">
         <v>4</v>
       </c>
       <c r="L90"/>
@@ -3553,42 +3650,42 @@
       <c r="L94"/>
     </row>
     <row r="95" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A95" s="33" t="s">
+      <c r="A95" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B95" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="C95" s="35" t="s">
+      <c r="B95" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C95" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="D95" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="E95" s="37" t="s">
+      <c r="D95" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="E95" s="31" t="s">
         <v>4</v>
       </c>
       <c r="F95"/>
-      <c r="G95" s="33" t="s">
+      <c r="G95" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="H95" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="I95" s="35" t="s">
+      <c r="H95" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="I95" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="J95" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="K95" s="37" t="s">
+      <c r="J95" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="K95" s="31" t="s">
         <v>4</v>
       </c>
       <c r="L95"/>
     </row>
     <row r="96" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A96" s="38" t="s">
-        <v>36</v>
+      <c r="A96" s="32" t="s">
+        <v>34</v>
       </c>
       <c r="B96" s="11" t="s">
         <v>5</v>
@@ -3599,12 +3696,12 @@
       <c r="D96" s="20">
         <v>2</v>
       </c>
-      <c r="E96" s="39">
+      <c r="E96" s="33">
         <v>4</v>
       </c>
       <c r="F96"/>
-      <c r="G96" s="38" t="s">
-        <v>37</v>
+      <c r="G96" s="32" t="s">
+        <v>35</v>
       </c>
       <c r="H96" s="11" t="s">
         <v>5</v>
@@ -3615,14 +3712,14 @@
       <c r="J96" s="20">
         <v>2</v>
       </c>
-      <c r="K96" s="39">
+      <c r="K96" s="33">
         <v>2</v>
       </c>
       <c r="L96"/>
     </row>
     <row r="97" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A97" s="38" t="s">
-        <v>36</v>
+      <c r="A97" s="32" t="s">
+        <v>34</v>
       </c>
       <c r="B97" s="11" t="s">
         <v>6</v>
@@ -3633,12 +3730,12 @@
       <c r="D97" s="20">
         <v>2</v>
       </c>
-      <c r="E97" s="39">
+      <c r="E97" s="33">
         <v>4</v>
       </c>
       <c r="F97"/>
-      <c r="G97" s="38" t="s">
-        <v>37</v>
+      <c r="G97" s="32" t="s">
+        <v>35</v>
       </c>
       <c r="H97" s="11" t="s">
         <v>8</v>
@@ -3649,14 +3746,14 @@
       <c r="J97" s="20">
         <v>1</v>
       </c>
-      <c r="K97" s="39">
+      <c r="K97" s="33">
         <v>2</v>
       </c>
       <c r="L97"/>
     </row>
     <row r="98" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="38" t="s">
-        <v>36</v>
+      <c r="A98" s="32" t="s">
+        <v>34</v>
       </c>
       <c r="B98" s="11" t="s">
         <v>8</v>
@@ -3667,30 +3764,30 @@
       <c r="D98" s="20">
         <v>1</v>
       </c>
-      <c r="E98" s="39">
+      <c r="E98" s="33">
         <v>2</v>
       </c>
       <c r="F98"/>
-      <c r="G98" s="40" t="s">
-        <v>37</v>
-      </c>
-      <c r="H98" s="41" t="s">
+      <c r="G98" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="H98" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="I98" s="42">
-        <v>2</v>
-      </c>
-      <c r="J98" s="43">
-        <v>1.5</v>
-      </c>
-      <c r="K98" s="44">
+      <c r="I98" s="36">
+        <v>2</v>
+      </c>
+      <c r="J98" s="37">
+        <v>1.5</v>
+      </c>
+      <c r="K98" s="38">
         <v>3</v>
       </c>
       <c r="L98"/>
     </row>
     <row r="99" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A99" s="38" t="s">
-        <v>36</v>
+      <c r="A99" s="32" t="s">
+        <v>34</v>
       </c>
       <c r="B99" s="11" t="s">
         <v>9</v>
@@ -3701,7 +3798,7 @@
       <c r="D99" s="20">
         <v>1.5</v>
       </c>
-      <c r="E99" s="39">
+      <c r="E99" s="33">
         <v>6</v>
       </c>
       <c r="F99"/>
@@ -3718,8 +3815,8 @@
       <c r="L99"/>
     </row>
     <row r="100" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A100" s="38" t="s">
-        <v>36</v>
+      <c r="A100" s="32" t="s">
+        <v>34</v>
       </c>
       <c r="B100" s="11" t="s">
         <v>10</v>
@@ -3730,7 +3827,7 @@
       <c r="D100" s="20">
         <v>2</v>
       </c>
-      <c r="E100" s="39">
+      <c r="E100" s="33">
         <v>4</v>
       </c>
       <c r="F100"/>
@@ -3744,8 +3841,8 @@
       <c r="L100"/>
     </row>
     <row r="101" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A101" s="38" t="s">
-        <v>36</v>
+      <c r="A101" s="32" t="s">
+        <v>34</v>
       </c>
       <c r="B101" s="11" t="s">
         <v>11</v>
@@ -3756,7 +3853,7 @@
       <c r="D101" s="20">
         <v>1.5</v>
       </c>
-      <c r="E101" s="39">
+      <c r="E101" s="33">
         <v>6</v>
       </c>
       <c r="F101"/>
@@ -3770,8 +3867,8 @@
       <c r="L101"/>
     </row>
     <row r="102" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A102" s="38" t="s">
-        <v>36</v>
+      <c r="A102" s="32" t="s">
+        <v>34</v>
       </c>
       <c r="B102" s="11" t="s">
         <v>12</v>
@@ -3782,7 +3879,7 @@
       <c r="D102" s="20">
         <v>1.5</v>
       </c>
-      <c r="E102" s="39">
+      <c r="E102" s="33">
         <v>3</v>
       </c>
       <c r="F102"/>
@@ -3796,19 +3893,19 @@
       <c r="L102"/>
     </row>
     <row r="103" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="B103" s="41" t="s">
+      <c r="A103" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B103" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="C103" s="42">
-        <v>2</v>
-      </c>
-      <c r="D103" s="43">
-        <v>2</v>
-      </c>
-      <c r="E103" s="44">
+      <c r="C103" s="36">
+        <v>2</v>
+      </c>
+      <c r="D103" s="37">
+        <v>2</v>
+      </c>
+      <c r="E103" s="38">
         <v>4</v>
       </c>
       <c r="F103"/>
@@ -3889,19 +3986,19 @@
       <c r="L107"/>
     </row>
     <row r="108" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A108" s="33" t="s">
+      <c r="A108" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B108" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="C108" s="35" t="s">
+      <c r="B108" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C108" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="D108" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="E108" s="37" t="s">
+      <c r="D108" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="E108" s="31" t="s">
         <v>4</v>
       </c>
       <c r="F108"/>
@@ -3913,8 +4010,8 @@
       <c r="L108"/>
     </row>
     <row r="109" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A109" s="38" t="s">
-        <v>38</v>
+      <c r="A109" s="32" t="s">
+        <v>36</v>
       </c>
       <c r="B109" s="11" t="s">
         <v>6</v>
@@ -3925,7 +4022,7 @@
       <c r="D109" s="20">
         <v>2</v>
       </c>
-      <c r="E109" s="39">
+      <c r="E109" s="33">
         <v>8</v>
       </c>
       <c r="F109"/>
@@ -3937,19 +4034,19 @@
       <c r="L109"/>
     </row>
     <row r="110" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="B110" s="41" t="s">
+      <c r="A110" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B110" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="C110" s="42">
+      <c r="C110" s="36">
         <v>4</v>
       </c>
-      <c r="D110" s="43">
-        <v>2</v>
-      </c>
-      <c r="E110" s="44">
+      <c r="D110" s="37">
+        <v>2</v>
+      </c>
+      <c r="E110" s="38">
         <v>8</v>
       </c>
       <c r="F110"/>
@@ -4030,19 +4127,19 @@
       <c r="L114"/>
     </row>
     <row r="115" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A115" s="33" t="s">
+      <c r="A115" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B115" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="C115" s="35" t="s">
+      <c r="B115" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C115" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="D115" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="E115" s="37" t="s">
+      <c r="D115" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="E115" s="31" t="s">
         <v>4</v>
       </c>
       <c r="F115"/>
@@ -4056,8 +4153,8 @@
       <c r="L115"/>
     </row>
     <row r="116" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A116" s="38" t="s">
-        <v>39</v>
+      <c r="A116" s="32" t="s">
+        <v>37</v>
       </c>
       <c r="B116" s="11" t="s">
         <v>7</v>
@@ -4068,7 +4165,7 @@
       <c r="D116" s="20">
         <v>2</v>
       </c>
-      <c r="E116" s="39">
+      <c r="E116" s="33">
         <v>6</v>
       </c>
       <c r="F116"/>
@@ -4080,8 +4177,8 @@
       <c r="L116"/>
     </row>
     <row r="117" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A117" s="38" t="s">
-        <v>39</v>
+      <c r="A117" s="32" t="s">
+        <v>37</v>
       </c>
       <c r="B117" s="11" t="s">
         <v>9</v>
@@ -4092,7 +4189,7 @@
       <c r="D117" s="20">
         <v>1.5</v>
       </c>
-      <c r="E117" s="39">
+      <c r="E117" s="33">
         <v>3</v>
       </c>
       <c r="F117"/>
@@ -4104,8 +4201,8 @@
       <c r="L117"/>
     </row>
     <row r="118" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A118" s="38" t="s">
-        <v>39</v>
+      <c r="A118" s="32" t="s">
+        <v>37</v>
       </c>
       <c r="B118" s="11" t="s">
         <v>11</v>
@@ -4116,7 +4213,7 @@
       <c r="D118" s="20">
         <v>1.5</v>
       </c>
-      <c r="E118" s="39">
+      <c r="E118" s="33">
         <v>4.5</v>
       </c>
       <c r="F118"/>
@@ -4128,19 +4225,19 @@
       <c r="L118"/>
     </row>
     <row r="119" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="B119" s="41" t="s">
+      <c r="A119" s="34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B119" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="C119" s="42">
+      <c r="C119" s="36">
         <v>4</v>
       </c>
-      <c r="D119" s="43">
-        <v>1.5</v>
-      </c>
-      <c r="E119" s="44">
+      <c r="D119" s="37">
+        <v>1.5</v>
+      </c>
+      <c r="E119" s="38">
         <v>6</v>
       </c>
       <c r="F119"/>
@@ -4152,7 +4249,7 @@
       <c r="L119"/>
     </row>
     <row r="120" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A120" s="45" t="s">
+      <c r="A120" s="39" t="s">
         <v>17</v>
       </c>
       <c r="B120"/>
@@ -4219,19 +4316,19 @@
       <c r="L123"/>
     </row>
     <row r="124" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A124" s="33" t="s">
+      <c r="A124" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B124" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="C124" s="35" t="s">
+      <c r="B124" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C124" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="D124" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="E124" s="37" t="s">
+      <c r="D124" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="E124" s="31" t="s">
         <v>4</v>
       </c>
       <c r="F124"/>
@@ -4243,7 +4340,7 @@
       <c r="L124"/>
     </row>
     <row r="125" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A125" s="38" t="s">
+      <c r="A125" s="32" t="s">
         <v>19</v>
       </c>
       <c r="B125" s="11" t="s">
@@ -4255,7 +4352,7 @@
       <c r="D125" s="20">
         <v>2</v>
       </c>
-      <c r="E125" s="39">
+      <c r="E125" s="33">
         <v>12</v>
       </c>
       <c r="F125"/>
@@ -4267,7 +4364,7 @@
       <c r="L125"/>
     </row>
     <row r="126" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A126" s="38" t="s">
+      <c r="A126" s="32" t="s">
         <v>19</v>
       </c>
       <c r="B126" s="11" t="s">
@@ -4279,7 +4376,7 @@
       <c r="D126" s="20">
         <v>2</v>
       </c>
-      <c r="E126" s="39">
+      <c r="E126" s="33">
         <v>12</v>
       </c>
       <c r="F126"/>
@@ -4291,7 +4388,7 @@
       <c r="L126"/>
     </row>
     <row r="127" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A127" s="38" t="s">
+      <c r="A127" s="32" t="s">
         <v>19</v>
       </c>
       <c r="B127" s="11" t="s">
@@ -4303,7 +4400,7 @@
       <c r="D127" s="20">
         <v>2</v>
       </c>
-      <c r="E127" s="39">
+      <c r="E127" s="33">
         <v>8</v>
       </c>
       <c r="F127"/>
@@ -4315,7 +4412,7 @@
       <c r="L127"/>
     </row>
     <row r="128" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A128" s="38" t="s">
+      <c r="A128" s="32" t="s">
         <v>19</v>
       </c>
       <c r="B128" s="11" t="s">
@@ -4327,7 +4424,7 @@
       <c r="D128" s="20">
         <v>1.5</v>
       </c>
-      <c r="E128" s="39">
+      <c r="E128" s="33">
         <v>6</v>
       </c>
       <c r="F128"/>
@@ -4339,19 +4436,19 @@
       <c r="L128"/>
     </row>
     <row r="129" spans="1:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="40" t="s">
+      <c r="A129" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="B129" s="41" t="s">
+      <c r="B129" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="C129" s="42">
+      <c r="C129" s="36">
         <v>6</v>
       </c>
-      <c r="D129" s="43">
-        <v>1.5</v>
-      </c>
-      <c r="E129" s="44">
+      <c r="D129" s="37">
+        <v>1.5</v>
+      </c>
+      <c r="E129" s="38">
         <v>9</v>
       </c>
       <c r="F129"/>
@@ -4363,8 +4460,8 @@
       <c r="L129"/>
     </row>
     <row r="130" spans="1:12" ht="16" x14ac:dyDescent="0.2">
-      <c r="A130" s="45" t="s">
-        <v>40</v>
+      <c r="A130" s="39" t="s">
+        <v>38</v>
       </c>
       <c r="B130"/>
       <c r="C130"/>
@@ -4383,7 +4480,7 @@
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
